--- a/Mag/Optimization of working energysystems/Homework 2/Find_losses/СШ2.xlsx
+++ b/Mag/Optimization of working energysystems/Homework 2/Find_losses/СШ2.xlsx
@@ -619,14 +619,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="7">
@@ -755,14 +755,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>988</v>
+        <v>4996</v>
       </c>
       <c r="D10" t="n">
-        <v>96.863</v>
+        <v>489.804</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -771,14 +771,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Л4</t>
+          <t>Л2</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>5.629</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="11">
@@ -789,14 +789,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>96.863</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Л2</t>
+          <t>Л4</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.629</v>
       </c>
     </row>
     <row r="12">
@@ -959,14 +959,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4420</v>
+        <v>4996</v>
       </c>
       <c r="D16" t="n">
-        <v>433.333</v>
+        <v>489.804</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -975,14 +975,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Л4</t>
+          <t>Л2</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
-        <v>112.666</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="17">
@@ -993,14 +993,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4420</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>433.333</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1009,14 +1009,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Л2</t>
+          <t>Л4</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>112.666</v>
       </c>
     </row>
     <row r="18">
@@ -1163,14 +1163,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3916</v>
+        <v>4996</v>
       </c>
       <c r="D22" t="n">
-        <v>383.922</v>
+        <v>489.804</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1179,14 +1179,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Л4</t>
+          <t>Л2</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
-        <v>88.438</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="23">
@@ -1197,14 +1197,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3916</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>383.922</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1213,14 +1213,14 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Л2</t>
+          <t>Л4</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>88.438</v>
       </c>
     </row>
     <row r="24">
@@ -1401,14 +1401,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>1.2</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="30">
@@ -1605,14 +1605,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>1.2</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="36">
@@ -1809,14 +1809,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>1.2</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="42">
@@ -1979,14 +1979,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>1.2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="47">
@@ -2183,14 +2183,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>1.2</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="53">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>1.2</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="59">
@@ -2591,14 +2591,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>1.2</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="65">
@@ -2795,14 +2795,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>1.2</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="71">
@@ -2999,14 +2999,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>1.2</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="77">
@@ -3203,14 +3203,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>1.2</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="83">
@@ -3407,14 +3407,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>СШ2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>4996</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>489.804</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>1.2</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>287.89</v>
       </c>
     </row>
     <row r="89">
